--- a/变更申请表2.xlsx
+++ b/变更申请表2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SchoolworkInBIT\Unfinished\软件项目管理\第三次大作业\SoftwareProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98299B5C-BAF5-4E54-8807-5E66299AB896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688203D0-782E-4D9C-B5FE-8610D03CACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2520" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="4095" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -791,13 +791,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:D4"/>
@@ -810,6 +803,13 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
